--- a/example_workbook.xlsx
+++ b/example_workbook.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="my neato sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Globals" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,133 +29,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
-  <si>
-    <t>My neat spreadsheet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>This is some text.</t>
   </si>
   <si>
-    <t>blah2</t>
-  </si>
-  <si>
-    <t>var2</t>
-  </si>
-  <si>
-    <t>var5</t>
-  </si>
-  <si>
-    <t>var6</t>
-  </si>
-  <si>
-    <t>var1</t>
-  </si>
-  <si>
-    <t>probability</t>
-  </si>
-  <si>
-    <t>interventions</t>
-  </si>
-  <si>
-    <t>outcome</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>shitting</t>
-  </si>
-  <si>
-    <t>failing</t>
-  </si>
-  <si>
-    <t>out1</t>
-  </si>
-  <si>
-    <t>out2</t>
-  </si>
-  <si>
-    <t>Title for table</t>
-  </si>
-  <si>
-    <t>more text</t>
-  </si>
-  <si>
-    <t>guitarists</t>
-  </si>
-  <si>
-    <t>bassists</t>
-  </si>
-  <si>
-    <t>strings</t>
-  </si>
-  <si>
-    <t>Muse</t>
-  </si>
-  <si>
-    <t>muse_guitarists</t>
-  </si>
-  <si>
-    <t>muse_bassists</t>
-  </si>
-  <si>
-    <t>Radiohead</t>
-  </si>
-  <si>
-    <t>radiohead_guitarists</t>
-  </si>
-  <si>
-    <t>radiohead_bassists</t>
-  </si>
-  <si>
-    <t>muse_strings</t>
-  </si>
-  <si>
-    <t>radiohead_strings</t>
-  </si>
-  <si>
-    <t>Another sheet</t>
-  </si>
-  <si>
-    <t>here's my first table</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Square</t>
-  </si>
-  <si>
-    <t>blah1</t>
-  </si>
-  <si>
-    <t>blah3</t>
-  </si>
-  <si>
-    <t>blah4</t>
-  </si>
-  <si>
-    <t>blah5</t>
-  </si>
-  <si>
-    <t>balh5</t>
-  </si>
-  <si>
-    <t>out3</t>
-  </si>
-  <si>
-    <t>out4</t>
-  </si>
-  <si>
-    <t>out6</t>
+    <t>Total utility</t>
+  </si>
+  <si>
+    <t>Pareto</t>
+  </si>
+  <si>
+    <t>Log-normal</t>
+  </si>
+  <si>
+    <t>Ratio vs. GD</t>
+  </si>
+  <si>
+    <t>GiveDirectly</t>
+  </si>
+  <si>
+    <t>THL</t>
+  </si>
+  <si>
+    <t>Cage-Free</t>
+  </si>
+  <si>
+    <t>AI Safety</t>
+  </si>
+  <si>
+    <t>AI Targeted Values Spreading</t>
+  </si>
+  <si>
+    <t>givedirectlypareto</t>
+  </si>
+  <si>
+    <t>givedirectlylognormal</t>
+  </si>
+  <si>
+    <t>givedirectlyratio</t>
+  </si>
+  <si>
+    <t>thlpareto</t>
+  </si>
+  <si>
+    <t>thllognormal</t>
+  </si>
+  <si>
+    <t>thlratio</t>
+  </si>
+  <si>
+    <t>cagefreepareto</t>
+  </si>
+  <si>
+    <t>cagefreelognormal</t>
+  </si>
+  <si>
+    <t>cageFreeRatio</t>
+  </si>
+  <si>
+    <t>AiSafetyPareto</t>
+  </si>
+  <si>
+    <t>AiSafetyLogNormal</t>
+  </si>
+  <si>
+    <t>AiSafetyRatio</t>
+  </si>
+  <si>
+    <t>AiValuePareto</t>
+  </si>
+  <si>
+    <t>AiValueLogNormal</t>
+  </si>
+  <si>
+    <t>AiValueRatio</t>
+  </si>
+  <si>
+    <t>Utility from direct effects only</t>
+  </si>
+  <si>
+    <t>AMF</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>givedirectlymean</t>
+  </si>
+  <si>
+    <t>givedirectlyvariance</t>
+  </si>
+  <si>
+    <t>amfMeanDirect</t>
+  </si>
+  <si>
+    <t>amfDirectVariance</t>
+  </si>
+  <si>
+    <t>amfDirectPareto</t>
+  </si>
+  <si>
+    <t>Far future outcome probabilities</t>
+  </si>
+  <si>
+    <t>Outcomes in a column are conditional on outcomes to the left, e.g. P(we reduce WAS on balance) = D8*B8. I explain my reasoning here: http://mdickens.me/2016/04/17/preventing_human_extinction,_now_with_numbers!/</t>
+  </si>
+  <si>
+    <t>stay on earth</t>
+  </si>
+  <si>
+    <t>we reduce WAS on balance</t>
+  </si>
+  <si>
+    <t>fill universe with biology</t>
+  </si>
+  <si>
+    <t>society doesn't care about animals</t>
+  </si>
+  <si>
+    <t>Size of far future (80% CI)</t>
+  </si>
+  <si>
+    <t>Computronium condition</t>
+  </si>
+  <si>
+    <t>Low CI</t>
+  </si>
+  <si>
+    <t>High CI</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>accessible stars</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>years of future</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>usable wattage</t>
+  </si>
+  <si>
+    <t>brains per watt</t>
+  </si>
+  <si>
+    <t>Biological condition</t>
+  </si>
+  <si>
+    <t>humans per star</t>
+  </si>
+  <si>
+    <t>factory farmed animals per star</t>
+  </si>
+  <si>
+    <t>wild vertebrates per star</t>
+  </si>
+  <si>
+    <t>[1]; assumes 1-10 planets per star</t>
+  </si>
+  <si>
+    <t>insects per star</t>
+  </si>
+  <si>
+    <t>simulations per insect</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>p(stay on earth)</t>
+  </si>
+  <si>
+    <t>p(fill universe with biology)</t>
+  </si>
+  <si>
+    <t>p(reduce WAS on balance)</t>
+  </si>
+  <si>
+    <t>p(society doesn't care about animals)</t>
+  </si>
+  <si>
+    <t>computronium accessible stars low CI</t>
+  </si>
+  <si>
+    <t>random input</t>
+  </si>
+  <si>
+    <t>random input 2</t>
+  </si>
+  <si>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>myvar1</t>
+  </si>
+  <si>
+    <t>myvar2</t>
+  </si>
+  <si>
+    <t>HELLO</t>
+  </si>
+  <si>
+    <t>tfhffgh</t>
+  </si>
+  <si>
+    <t>fdsfsdafdasfads</t>
+  </si>
+  <si>
+    <t>adsffdasdfasdafsdfsaadfsdfas fads afsd afsd asdfdfasadsffads fasddafsdfsadsf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,8 +270,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,13 +300,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,11 +335,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,107 +704,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -610,78 +867,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A2:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D2" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B3" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
